--- a/data/trans_dic/P22_R3-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P22_R3-Edad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.03312462369680318</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.03646608801604105</v>
+        <v>0.03646608801604106</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.05476153098525942</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01876610334582229</v>
+        <v>0.02085782431011483</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02134032293781637</v>
+        <v>0.02119670351270088</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01783988367497451</v>
+        <v>0.01789080412893613</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01273959063068727</v>
+        <v>0.01322635393978776</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.03762275105469653</v>
+        <v>0.03454878472037132</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01222079643101433</v>
+        <v>0.01340848905619013</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01497663211399262</v>
+        <v>0.0148551604520454</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.03137052273000877</v>
+        <v>0.03179596541105169</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.02050980549775405</v>
+        <v>0.02012069885047926</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.02100379714225406</v>
+        <v>0.02090708870616975</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.01192298506050626</v>
+        <v>0.01056609937629093</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05044340126242282</v>
+        <v>0.05095599738944612</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05803887023359373</v>
+        <v>0.05843333602573701</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.05407288101040511</v>
+        <v>0.05826772265354938</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.07488972722234442</v>
+        <v>0.07914951020067425</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.07955310434045464</v>
+        <v>0.07996819081689445</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.04058741105780599</v>
+        <v>0.04500041894938782</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.04912712621073359</v>
+        <v>0.04875102559495709</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.03402330441710504</v>
+        <v>0.03679069767377055</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.05823651308964017</v>
+        <v>0.05942910477509798</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.04491225422195429</v>
+        <v>0.04453814986995308</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.04600583915383762</v>
+        <v>0.04457086328305243</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.04907885262145772</v>
+        <v>0.04675323985046844</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.03571693905645394</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.01736612632778112</v>
+        <v>0.01736612632778111</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.04095686229871812</v>
@@ -833,7 +833,7 @@
         <v>0.03476794192385289</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.0254324152260596</v>
+        <v>0.02543241522605961</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02319200735258577</v>
+        <v>0.02280569294551894</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0266477728572053</v>
+        <v>0.02651459466957696</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02074996345884209</v>
+        <v>0.02101851092636665</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.0159030163368112</v>
+        <v>0.01491493607985384</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.03219082482865697</v>
+        <v>0.03265760379721157</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02206691857753863</v>
+        <v>0.02214769110954336</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02288503832612491</v>
+        <v>0.02226132419188323</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.008149928717236387</v>
+        <v>0.007375205631509775</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.03090046915299097</v>
+        <v>0.03247496877932859</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.02816131282667916</v>
+        <v>0.02770681180761866</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.02509602311169428</v>
+        <v>0.02522224925036204</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.0143246591207779</v>
+        <v>0.01468007892215486</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05210550714936145</v>
+        <v>0.0518198999191826</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05938541799800058</v>
+        <v>0.06194438326453464</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.05037835326511413</v>
+        <v>0.0514051277819083</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.06045256597223218</v>
+        <v>0.06090364679415138</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.06738599722369029</v>
+        <v>0.06595234227244008</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.05481664460115259</v>
+        <v>0.05430352367045174</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.05315297455755093</v>
+        <v>0.05552572355262595</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.03501848856947841</v>
+        <v>0.03594024073930431</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.05374936775301437</v>
+        <v>0.05386645930127259</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.05052238642478901</v>
+        <v>0.0502761239508567</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.04720628398040898</v>
+        <v>0.04533121967914887</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.04067104440410682</v>
+        <v>0.04247513518807525</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.05489137805338292</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.03257622668987113</v>
+        <v>0.03257622668987112</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02450167450102359</v>
+        <v>0.02272347490394123</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03860093924971062</v>
+        <v>0.03805887458700646</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0424766796220456</v>
+        <v>0.04266678633173384</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02038881152585032</v>
+        <v>0.02053315755411383</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02477530003469652</v>
+        <v>0.02594706120094828</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02215122258583649</v>
+        <v>0.02218075972555118</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03398256471374041</v>
+        <v>0.03402102157353609</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.02235251642009761</v>
+        <v>0.02093705814081408</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02803664225224847</v>
+        <v>0.02798157139766218</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.03260052087289208</v>
+        <v>0.03366149245980843</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.04362578059260398</v>
+        <v>0.04256536566899601</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.02326393017573039</v>
+        <v>0.02375553825137431</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05482563135602929</v>
+        <v>0.05498625303207746</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.07768304392718371</v>
+        <v>0.07661653778732011</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.08420739333458999</v>
+        <v>0.08355937325643292</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.05251660073639761</v>
+        <v>0.05405041342511811</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.05604883566773832</v>
+        <v>0.05719409565500114</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.05405407039235002</v>
+        <v>0.05335384168881597</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.06735796915507364</v>
+        <v>0.06723289288000406</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.04655070038043863</v>
+        <v>0.04436202925768445</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04908001771307417</v>
+        <v>0.05083047995704661</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.05776576448111726</v>
+        <v>0.05858212771967582</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.06868854992335272</v>
+        <v>0.06922072692984654</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.04230138649546134</v>
+        <v>0.04262356531029671</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.05210131209799816</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.03936526192128473</v>
+        <v>0.03936526192128472</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.04284982840778141</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0482312767934837</v>
+        <v>0.04838470481734911</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03206665001252016</v>
+        <v>0.03250669592525933</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03563418236639422</v>
+        <v>0.03561041883261357</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02369380890975727</v>
+        <v>0.02591251679209717</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02787111604602066</v>
+        <v>0.02742790534889311</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.03749009208550624</v>
+        <v>0.03752248825564725</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02567399000565049</v>
+        <v>0.02486811890596062</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02168495887072052</v>
+        <v>0.02190869739442082</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.04278670002902714</v>
+        <v>0.04174685472825412</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.04004970118849856</v>
+        <v>0.04066645873140675</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.03508306750821177</v>
+        <v>0.0355778233180624</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.02693808672693795</v>
+        <v>0.02622765835864612</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0945673191112071</v>
+        <v>0.09554204516014754</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.07709253494964133</v>
+        <v>0.07962299838809353</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.07346578412541879</v>
+        <v>0.07604801907593896</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.05713548165090492</v>
+        <v>0.05682776493190172</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.06524111914611909</v>
+        <v>0.06339379451469135</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.08136410180967218</v>
+        <v>0.08208474619789448</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.05722944999084038</v>
+        <v>0.0570379411029175</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.04255644729241106</v>
+        <v>0.04236112294760311</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.06996300202369328</v>
+        <v>0.07197403037610889</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.07156546380955599</v>
+        <v>0.07025455703887724</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.05933974412156939</v>
+        <v>0.05993720945055075</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.04504192862810678</v>
+        <v>0.04549756450641179</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.03102100770849775</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.03174331889866062</v>
+        <v>0.03174331889866063</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.04575571616059771</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01858973191855846</v>
+        <v>0.01724324313668258</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.03131048118789592</v>
+        <v>0.03435650696079685</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.04124468741411132</v>
+        <v>0.03968371083993489</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.0194212068768684</v>
+        <v>0.02047055725717411</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.03876778635898511</v>
+        <v>0.0385343502137284</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.01624123296962595</v>
+        <v>0.01619893090114452</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01771545594375279</v>
+        <v>0.01675405218861327</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.02206412138706685</v>
+        <v>0.02255394145869135</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.03285792961025797</v>
+        <v>0.03367276729399923</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.02930469236998767</v>
+        <v>0.02900371801792509</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.03240892827355925</v>
+        <v>0.03244555061645341</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.02362257273567807</v>
+        <v>0.02416087175871227</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.05183136590583291</v>
+        <v>0.05236448216568169</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.07883572236048855</v>
+        <v>0.08559386543758161</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.08469706100319942</v>
+        <v>0.08716697414223122</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.04776420966870584</v>
+        <v>0.04579434038705484</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.0874618603171943</v>
+        <v>0.08857249045810267</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.05482241376578875</v>
+        <v>0.05594509851968708</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.05228916743323762</v>
+        <v>0.0526602196509802</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.04421087405642105</v>
+        <v>0.04506603452200929</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.06262610383800643</v>
+        <v>0.06257365822610642</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.061189860043297</v>
+        <v>0.06220128509153657</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.06014265595670142</v>
+        <v>0.06202107394716837</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.04115144402314144</v>
+        <v>0.04112481781524018</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.03787473964420127</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.04928982629760151</v>
+        <v>0.04928982629760152</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.03848620660618952</v>
@@ -1365,7 +1365,7 @@
         <v>0.03716174114331175</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.04056471205160798</v>
+        <v>0.04056471205160797</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.03821337151304274</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.01914122240161899</v>
+        <v>0.02180088297923599</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.03303331628716993</v>
+        <v>0.0316998448335602</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.02196563353473852</v>
+        <v>0.01984322168463616</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.03416537291275254</v>
+        <v>0.0338823212638635</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.02275260442752973</v>
+        <v>0.02139273613981951</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.007716409749664518</v>
+        <v>0.007848245857647668</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.01954217822490655</v>
+        <v>0.01886324019884285</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.02806462965718709</v>
+        <v>0.02953297205526852</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.02590718380400201</v>
+        <v>0.02601784061359812</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.02278974799699844</v>
+        <v>0.02262797519539826</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.02499480756338343</v>
+        <v>0.02489320320144165</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.03489177824523346</v>
+        <v>0.03466625914673081</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.06330243272491611</v>
+        <v>0.06270523806781665</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.09444440083299925</v>
+        <v>0.09679010221454577</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.06452033697525396</v>
+        <v>0.0666334123841797</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.06899540237071652</v>
+        <v>0.06985291560595211</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.06461255353805333</v>
+        <v>0.06123701084705484</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.0377022976915795</v>
+        <v>0.03885124608420148</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.06080610572853003</v>
+        <v>0.06255466247091208</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.0566847167577595</v>
+        <v>0.05622044394441928</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.05395937848244087</v>
+        <v>0.05513490499824932</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.05665087737925374</v>
+        <v>0.05523789487192176</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.05632904581032437</v>
+        <v>0.05334936452590896</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.05714671973767378</v>
+        <v>0.05712860706444983</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.006415855234298901</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.02425671003460793</v>
+        <v>0.02425671003460792</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.01978890620374224</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01215732357170709</v>
+        <v>0.01224715026921469</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.007853794136957836</v>
+        <v>0.008014525428644075</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.01247685653223086</v>
+        <v>0.009818766107398276</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.0220089342105505</v>
+        <v>0.02281990700798062</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.003556142210774283</v>
+        <v>0.003507085330361598</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.01148903651433894</v>
+        <v>0.01332530699728762</v>
       </c>
       <c r="I23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.01464643428269976</v>
+        <v>0.01555899698626092</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.0100689576775473</v>
+        <v>0.009663701355771435</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.0143771565666313</v>
+        <v>0.01302492129738007</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.00727267033074159</v>
+        <v>0.007322310345353559</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.02082704051889289</v>
+        <v>0.02073449869237693</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.06351809791779887</v>
+        <v>0.06329441186254477</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.04576019956131192</v>
+        <v>0.04429126170437918</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.05156277864614871</v>
+        <v>0.04627929027676832</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.05926858265253584</v>
+        <v>0.06003845266744653</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.03424597942668384</v>
+        <v>0.03414808167605123</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.05184843309631739</v>
+        <v>0.05252732509002342</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.02175822869426587</v>
+        <v>0.0226726456069286</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.0365990424165178</v>
+        <v>0.03846589370020326</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.03559361975846478</v>
+        <v>0.03869321288839441</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.04072591252941827</v>
+        <v>0.04094402084455167</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.02633173225503949</v>
+        <v>0.02552540451033428</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.04083060551375717</v>
+        <v>0.04116815811660921</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.03359056998245767</v>
+        <v>0.03360588165014673</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.0386971320700477</v>
+        <v>0.03912233361431316</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.03876664866633708</v>
+        <v>0.03845614721183951</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.03007855892288008</v>
+        <v>0.03066220956461914</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.03694232674690015</v>
+        <v>0.03660685404873956</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.02843226174256035</v>
+        <v>0.02784094323622355</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.02869275645081766</v>
+        <v>0.02815515335005699</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.02344282596896593</v>
+        <v>0.02353495521616312</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.03674284583647279</v>
+        <v>0.03657867074712709</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.03535818613655566</v>
+        <v>0.03560799909415539</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.03558805735628768</v>
+        <v>0.03538298703638423</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.02813091460237443</v>
+        <v>0.02819632230451949</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.04741818636571928</v>
+        <v>0.0471856574648</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.05515029376058733</v>
+        <v>0.05500176796351062</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.05421316376692292</v>
+        <v>0.05418784373385582</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.04444674153067638</v>
+        <v>0.04407743301204065</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.05046400261617118</v>
+        <v>0.05048234806859613</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.04153256012250402</v>
+        <v>0.04170125120136561</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.04099225739977028</v>
+        <v>0.0408561699245318</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.03210193880420942</v>
+        <v>0.03250844485124111</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.04678121914996116</v>
+        <v>0.04672377932613346</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.04573024051090818</v>
+        <v>0.04555661242790236</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.04567502542980434</v>
+        <v>0.04492337958173689</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.03686218470160741</v>
+        <v>0.0366344858063352</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>9254</v>
+        <v>10286</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>9671</v>
+        <v>9606</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>7450</v>
+        <v>7471</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>5195</v>
+        <v>5394</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>17588</v>
+        <v>16151</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>5258</v>
+        <v>5769</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>5927</v>
+        <v>5879</v>
       </c>
       <c r="J6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>30135</v>
+        <v>30544</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>18118</v>
+        <v>17775</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>17084</v>
+        <v>17005</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>9184</v>
+        <v>8139</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>24876</v>
+        <v>25128</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>26301</v>
+        <v>26480</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>22582</v>
+        <v>24334</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>30540</v>
+        <v>32277</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>37190</v>
+        <v>37384</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>17462</v>
+        <v>19361</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>19442</v>
+        <v>19293</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>12334</v>
+        <v>13337</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>55944</v>
+        <v>57089</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>39675</v>
+        <v>39345</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>37420</v>
+        <v>36253</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>37806</v>
+        <v>36014</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>16999</v>
+        <v>16716</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>18309</v>
+        <v>18218</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>12253</v>
+        <v>12411</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>7584</v>
+        <v>7113</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>20135</v>
+        <v>20427</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>13466</v>
+        <v>13516</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>12854</v>
+        <v>12504</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>4080</v>
+        <v>3693</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>41978</v>
+        <v>44116</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>36535</v>
+        <v>35945</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>28915</v>
+        <v>29061</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>14003</v>
+        <v>14351</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>38192</v>
+        <v>37983</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>40803</v>
+        <v>42561</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>29748</v>
+        <v>30355</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>28829</v>
+        <v>29044</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>42150</v>
+        <v>41253</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>33452</v>
+        <v>33139</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>29855</v>
+        <v>31188</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>17533</v>
+        <v>17994</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>73017</v>
+        <v>73176</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>65545</v>
+        <v>65225</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>54390</v>
+        <v>52230</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>39758</v>
+        <v>41522</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>15648</v>
+        <v>14513</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>26321</v>
+        <v>25951</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>28381</v>
+        <v>28508</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>12658</v>
+        <v>12748</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>17089</v>
+        <v>17897</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>15746</v>
+        <v>15767</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>22476</v>
+        <v>22501</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>13930</v>
+        <v>13048</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>37244</v>
+        <v>37171</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>45403</v>
+        <v>46881</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>58003</v>
+        <v>56593</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>28941</v>
+        <v>29553</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>35015</v>
+        <v>35118</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>52969</v>
+        <v>52242</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>56264</v>
+        <v>55831</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>32604</v>
+        <v>33556</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>38659</v>
+        <v>39449</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>38424</v>
+        <v>37927</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>44550</v>
+        <v>44467</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>29010</v>
+        <v>27646</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>65198</v>
+        <v>67524</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>80451</v>
+        <v>81588</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>91325</v>
+        <v>92032</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>52624</v>
+        <v>53025</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>24984</v>
+        <v>25064</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>19709</v>
+        <v>19979</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>23021</v>
+        <v>23006</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>16600</v>
+        <v>18155</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>14339</v>
+        <v>14111</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>23101</v>
+        <v>23121</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>16639</v>
+        <v>16117</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>15979</v>
+        <v>16144</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>44176</v>
+        <v>43103</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>49294</v>
+        <v>50053</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>45403</v>
+        <v>46043</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>38724</v>
+        <v>37702</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>48987</v>
+        <v>49492</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>47382</v>
+        <v>48938</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>47462</v>
+        <v>49131</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>40030</v>
+        <v>39814</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>33564</v>
+        <v>32614</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>50136</v>
+        <v>50581</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>37090</v>
+        <v>36966</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>31359</v>
+        <v>31215</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>72235</v>
+        <v>74311</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>88084</v>
+        <v>86470</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>76794</v>
+        <v>77568</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>64748</v>
+        <v>65403</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>7189</v>
+        <v>6668</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>13446</v>
+        <v>14754</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>19624</v>
+        <v>18881</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>11834</v>
+        <v>12474</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>15629</v>
+        <v>15535</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>7273</v>
+        <v>7254</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>8802</v>
+        <v>8324</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>13418</v>
+        <v>13716</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>25953</v>
+        <v>26596</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>25707</v>
+        <v>25443</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>31522</v>
+        <v>31558</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>28760</v>
+        <v>29415</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>20044</v>
+        <v>20250</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>33854</v>
+        <v>36756</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>40298</v>
+        <v>41473</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>29105</v>
+        <v>27905</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>35259</v>
+        <v>35707</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>24549</v>
+        <v>25052</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>25980</v>
+        <v>26164</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>26886</v>
+        <v>27406</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>49465</v>
+        <v>49424</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>53678</v>
+        <v>54565</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>58497</v>
+        <v>60324</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>50101</v>
+        <v>50069</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>5600</v>
+        <v>6379</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>10233</v>
+        <v>9820</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>7344</v>
+        <v>6634</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>13908</v>
+        <v>13793</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>7803</v>
+        <v>7336</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>2732</v>
+        <v>2778</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>7349</v>
+        <v>7094</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>12325</v>
+        <v>12970</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>16464</v>
+        <v>16535</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>15127</v>
+        <v>15020</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>17756</v>
+        <v>17684</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>29527</v>
+        <v>29336</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>18521</v>
+        <v>18346</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>29258</v>
+        <v>29984</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>21571</v>
+        <v>22278</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>28087</v>
+        <v>28436</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>22158</v>
+        <v>21000</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>13346</v>
+        <v>13753</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>22867</v>
+        <v>23525</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>24894</v>
+        <v>24690</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>34292</v>
+        <v>35039</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>37604</v>
+        <v>36666</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>40016</v>
+        <v>37899</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>48360</v>
+        <v>48345</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>2529</v>
+        <v>2548</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>1962</v>
+        <v>2002</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>3207</v>
+        <v>2523</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>6827</v>
+        <v>7079</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1187</v>
+        <v>1171</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>4469</v>
+        <v>5183</v>
       </c>
       <c r="I30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>6805</v>
+        <v>7229</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>5457</v>
+        <v>5237</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>9185</v>
+        <v>8321</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>4770</v>
+        <v>4803</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>16137</v>
+        <v>16065</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>13214</v>
+        <v>13168</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>11433</v>
+        <v>11066</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>13252</v>
+        <v>11894</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>18385</v>
+        <v>18624</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>11435</v>
+        <v>11402</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>20168</v>
+        <v>20432</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>8679</v>
+        <v>9044</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>17004</v>
+        <v>17872</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>19290</v>
+        <v>20970</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>26017</v>
+        <v>26156</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>17271</v>
+        <v>16742</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>31636</v>
+        <v>31897</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>109846</v>
+        <v>109896</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>132569</v>
+        <v>134025</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>131397</v>
+        <v>130345</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>106260</v>
+        <v>108322</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>124761</v>
+        <v>123628</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>101171</v>
+        <v>99067</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>101536</v>
+        <v>99634</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>87563</v>
+        <v>87907</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>244241</v>
+        <v>243150</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>246945</v>
+        <v>248690</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>246560</v>
+        <v>245140</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>204453</v>
+        <v>204929</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>155064</v>
+        <v>154303</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>188934</v>
+        <v>188425</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>183752</v>
+        <v>183666</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>157020</v>
+        <v>155715</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>170426</v>
+        <v>170487</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>147786</v>
+        <v>148386</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>145061</v>
+        <v>144579</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>119906</v>
+        <v>121424</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>310969</v>
+        <v>310587</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>319385</v>
+        <v>318172</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>316445</v>
+        <v>311237</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>267912</v>
+        <v>266257</v>
       </c>
     </row>
     <row r="36">
